--- a/biology/Botanique/Dendroctonus_frontalis/Dendroctonus_frontalis.xlsx
+++ b/biology/Botanique/Dendroctonus_frontalis/Dendroctonus_frontalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dendroctonus frontalis (le dendroctone méridional du pin) est une espèce d'insectes coléoptères de la famille des Curculionidaes, originaire d'Amérique. La frontaline, une phéromone, tire son nom de cette espèce.
@@ -513,9 +525,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de Dendroctonus frontalis, à l'état indigène, comprend surtout les forêts du sud des États-Unis, du Mexique et d'Amérique centrale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de Dendroctonus frontalis, à l'état indigène, comprend surtout les forêts du sud des États-Unis, du Mexique et d'Amérique centrale.
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au stade adulte (imago), le dendroctone des pins possède un exosquelette brun-rougeâtre à noir et mesure environ trois millimètres de long, soit la taille d'un grain de riz[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au stade adulte (imago), le dendroctone des pins possède un exosquelette brun-rougeâtre à noir et mesure environ trois millimètres de long, soit la taille d'un grain de riz.
 Les jeunes adultes ont le corps mou et de couleur ambre, mais ils durcissent rapidement, prenant une couleur plus foncée.
 Les larves, en forme de croissant, sont de couleur blanchâtre avec la tête orange. Elles atteignent sensiblement la même longueur que les adultes à complet développement.
 Les nymphes, de couleur blanche, ont également la même taille.
-Les œufs, lisses, blanc nacré, sont déposés dans des encoches le long de chaque côté des galeries de ponte forées par les femelles[3].
+Les œufs, lisses, blanc nacré, sont déposés dans des encoches le long de chaque côté des galeries de ponte forées par les femelles.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Gamme d'hôtes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La gamme d'hôtes de Dendroctonus frontalis se limite aux espèces du genre Pinus (les pins). Les arbres infestés aux États-Unis appartiennent principalement aux espèces Pinus taeda, P. echinata, P. elliottii, P. virginiana, P. rigida, P. palustris, P. serotina, P. pungens et P. strobus, P. ponderosa, P. engelmannii et P. leiophylla. En Amérique centrale, les espèces concernées sont P. caribaea, P. engelmannii, P. leiophylla, P. maximinoi et P. oocarpa.
 Dans le sud-est des États-Unis, il est considéré comme l'une des principales causes de pertes économiques dans le secteur forestier.
